--- a/docs/PTA3a_ADDC_30_1d5/PTA3a_ADDC_30_1d5_05.08.24_output.xlsx
+++ b/docs/PTA3a_ADDC_30_1d5/PTA3a_ADDC_30_1d5_05.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731700516.2526114</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731700516.3174381</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700516.2526114.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700516.3174381.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>2901.4</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>2904.9</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>3.5</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731700516.4895825</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731700517.2984176</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700516.4895825.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700517.2984176.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>2900.65</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>2897.3</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-3.349999999999909</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731700517.418098</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731700517.6689403</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700517.418098.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700517.6689403.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>2897.95</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>2895.1</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>2.849999999999909</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731700517.7088335</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731700517.7985938</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700517.7088335.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700517.7985938.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>2894.5</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>2894.55</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.0500000000001819</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731700517.8654425</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731700519.0143437</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700517.8654425.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700519.0143437.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>2893.8</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>2884.2</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-9.600000000000364</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.33</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731700519.1070957</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731700520.3358366</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700519.1070957.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700520.3358366.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>2897.3</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>2902.5</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-5.199999999999818</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731700520.4794245</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731700520.6749017</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700520.4794245.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700520.6749017.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>2901.2</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>2904.9</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>3.700000000000273</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731700520.6888793</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731700520.7526934</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700520.6888793.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700520.7526934.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>2904.9</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>2903.55</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>1.349999999999909</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731700521.022971</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731700521.701157</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700521.022971.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700521.701157.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>2907.6</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>2907.75</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.1500000000000909</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731700521.891648</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731700522.036289</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700521.891648.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700522.036289.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>2904</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>2906.25</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>2.25</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1059,44 +1135,50 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731700522.3314998</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731700522.3314998.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731700522.3314998.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>2898.6</v>
       </c>
-      <c r="J13" t="n">
-        <v>2898.6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>2888</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-10.59999999999991</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.37</v>
       </c>
     </row>
   </sheetData>
@@ -1157,19 +1239,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-4.599999999999909</v>
+        <v>-15.19999999999982</v>
       </c>
       <c r="C2" t="n">
         <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.4181818181818099</v>
+        <v>-1.381818181818165</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.16</v>
+        <v>-0.53</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.01</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="3">
